--- a/簿记/Manufacturing Account/Question 2.xlsx
+++ b/簿记/Manufacturing Account/Question 2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A408F61C-4203-F747-81FD-9F6BCD973639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E1572-AB17-AF49-B360-563333E02279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="2280" windowWidth="13680" windowHeight="17040" xr2:uid="{21DF4F17-0FB7-F44A-A3D6-CBD39C239772}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{21DF4F17-0FB7-F44A-A3D6-CBD39C239772}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Manufacturing Account" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Manufacturing Account'!$A$1:$C$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>RM</t>
   </si>
@@ -223,41 +226,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,374 +579,394 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="11"/>
-    <col min="4" max="4" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>82500</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="10">
         <v>-2500</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7">
         <f>B8+B9</f>
         <v>80000</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5">
+      <c r="B11" s="10">
         <v>2000</v>
       </c>
-      <c r="D10" s="5">
-        <f>C9+C10</f>
+      <c r="C11" s="10">
+        <f>B10+B11</f>
         <v>82000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <f>D7+D10</f>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <f>C7+C11</f>
         <v>97000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10">
         <v>-28000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <f>D11+D12</f>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <f>C12+C13</f>
         <v>69000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="B15" s="7"/>
+      <c r="C15" s="10">
         <v>-3000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <f>D13+D14</f>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <f>C14+C15</f>
         <v>66000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
         <v>21200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
+      <c r="B20" s="7">
         <v>4400</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5">
+      <c r="B21" s="10">
         <v>3600</v>
       </c>
-      <c r="D20" s="5">
-        <f>C19+C20</f>
+      <c r="C21" s="10">
+        <f>B20+B21</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <f>D17+D20+D15</f>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <f>C18+C21+C16</f>
         <v>95200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5">
+      <c r="B23" s="7"/>
+      <c r="C23" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <f>D21+D22</f>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <f>C22+C23</f>
         <v>98200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5">
+      <c r="B25" s="7"/>
+      <c r="C25" s="10">
         <v>-14000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="10">
-        <f>D23+D24</f>
+      <c r="B26" s="7"/>
+      <c r="C26" s="11">
+        <f>C24+C25</f>
         <v>84200</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="11">
+      <c r="B28" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="11">
+      <c r="B29" s="7">
         <v>6600</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="11">
+      <c r="B30" s="7">
         <f>7200*75%</f>
         <v>5400</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="11">
+      <c r="B31" s="7">
         <f>3000/5*4</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="11">
+      <c r="B32" s="7">
         <f>5000/5*4</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="11">
+      <c r="B33" s="7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="11">
+      <c r="B34" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="11">
+      <c r="B35" s="7">
         <v>4500</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="11">
+      <c r="B36" s="7">
         <v>8400</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="12">
+      <c r="B37" s="10">
         <f>1600+2000-1100</f>
         <v>2500</v>
       </c>
-      <c r="D36" s="12">
-        <f>SUM(C27:C36)</f>
+      <c r="C37" s="10">
+        <f>SUM(B28:B37)</f>
         <v>45800</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="11">
-        <f>D25+D36</f>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7">
+        <f>C26+C37</f>
         <v>130000</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="12">
+      <c r="B39" s="7"/>
+      <c r="C39" s="10">
         <v>20000</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="13">
+      <c r="B40" s="7"/>
+      <c r="C40" s="12">
         <v>150000</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -971,13 +995,15 @@
     <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>